--- a/experiment/properties.xlsx
+++ b/experiment/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanyusong/thesis/MicroLiq/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEDAE8E-F9F4-4B4D-9C19-7F0E6AE23FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA790A03-EF28-0044-B60C-C27D018A8EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1060" yWindow="760" windowWidth="28300" windowHeight="17120" xr2:uid="{3A8E260A-7906-6D46-9FA4-D9E90E4A57D9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>outer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>Dr(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta)v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ini_density</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,8 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -220,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -230,19 +239,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB8CA36-8B0B-CC44-A6A0-4681467504E1}">
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -590,7 +602,7 @@
     <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -643,13 +655,19 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>240829</v>
       </c>
@@ -709,15 +727,26 @@
         <v>688.5</v>
       </c>
       <c r="R2">
-        <f t="shared" ref="R2:R18" si="4">Q2/(D2*0.1)*0.000001</f>
+        <f>Q2/(D2*0.1)*0.000001</f>
         <v>1.3697272289846238</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S18" si="5">(1/1.189-1/R2)/(1/1.189-1/1.585)</f>
+        <v>-0.83</v>
+      </c>
+      <c r="T2">
+        <f>Q2/(D2*0.1-S2*0.000001)*0.000001</f>
+        <v>1.3674692193196487</v>
+      </c>
+      <c r="V2">
+        <f>(1/1.189-1/R2)/(1/1.189-1/1.585)</f>
         <v>0.52810901508185659</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="W2">
+        <f>V2*100</f>
+        <v>52.810901508185658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>240909</v>
       </c>
@@ -750,19 +779,33 @@
         <f t="shared" si="3"/>
         <v>376.99111843077532</v>
       </c>
+      <c r="N3">
+        <v>0.95</v>
+      </c>
       <c r="Q3">
         <v>703.45</v>
       </c>
       <c r="R3">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="R3:R19" si="4">Q3/(D3*0.1)*0.000001</f>
         <v>1.3994693089749219</v>
       </c>
       <c r="S3">
-        <f t="shared" si="5"/>
+        <v>2.65</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T18" si="5">Q3/(D3*0.1-S3*0.000001)*0.000001</f>
+        <v>1.4068864247436355</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V17" si="6">(1/1.189-1/R3)/(1/1.189-1/1.585)</f>
         <v>0.60194869487399394</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="W3">
+        <f t="shared" ref="W3:W17" si="7">V3*100</f>
+        <v>60.194869487399394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>240910</v>
       </c>
@@ -795,6 +838,9 @@
         <f t="shared" si="3"/>
         <v>376.99111843077532</v>
       </c>
+      <c r="N4">
+        <v>0.94</v>
+      </c>
       <c r="O4">
         <v>1140.51</v>
       </c>
@@ -802,7 +848,7 @@
         <v>450.76</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q18" si="6">O4-P4</f>
+        <f t="shared" ref="Q4:Q17" si="8">O4-P4</f>
         <v>689.75</v>
       </c>
       <c r="R4">
@@ -810,65 +856,89 @@
         <v>1.3722140249704347</v>
       </c>
       <c r="S4">
+        <v>1.98</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="5"/>
+        <v>1.3776406684445719</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="6"/>
         <v>0.53440552874159475</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
-      <c r="A5">
-        <v>240911</v>
-      </c>
-      <c r="B5">
+      <c r="W4">
+        <f t="shared" si="7"/>
+        <v>53.440552874159472</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1">
+        <v>240912</v>
+      </c>
+      <c r="B5" s="1">
         <v>0.05</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.03</v>
       </c>
-      <c r="D5">
-        <f>(B5^2-C5^2)*PI()</f>
-        <v>5.0265482457436707E-3</v>
-      </c>
-      <c r="E5">
-        <v>0.4</v>
+      <c r="D5" s="1">
+        <v>5.0265500000000003E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.33</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>166.66666666666666</v>
+        <v>180.72289156626505</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
+        <v>59.638554216867469</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>99.999999999999986</v>
+        <v>121.08433734939757</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>502.65482457436696</v>
-      </c>
-      <c r="O5">
-        <v>1019.21</v>
-      </c>
-      <c r="P5">
-        <v>338.9</v>
+        <v>608.63647590361438</v>
+      </c>
+      <c r="N5">
+        <v>0.95</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1281.52</v>
+      </c>
+      <c r="P5" s="1">
+        <v>592.37</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="6"/>
-        <v>680.31000000000006</v>
+        <f t="shared" si="8"/>
+        <v>689.15</v>
       </c>
       <c r="R5">
         <f t="shared" si="4"/>
-        <v>1.3534337416855911</v>
+        <v>1.3710198844137627</v>
       </c>
       <c r="S5">
+        <v>1.25</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="5"/>
-        <v>0.48628180544998068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>1.3744378296985467</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="6"/>
+        <v>0.53138484139442688</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="7"/>
+        <v>53.138484139442689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
-        <v>240912</v>
+        <v>240913</v>
       </c>
       <c r="B6" s="1">
         <v>0.05</v>
@@ -880,46 +950,68 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E6" s="1">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>180.72289156626505</v>
+        <v>187.5</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>59.638554216867469</v>
+        <v>56.25</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>121.08433734939757</v>
+        <v>131.25</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>608.63647590361438</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1281.52</v>
-      </c>
-      <c r="P6" s="1">
-        <v>592.37</v>
-      </c>
+        <v>659.73468750000006</v>
+      </c>
+      <c r="J6">
+        <v>224</v>
+      </c>
+      <c r="K6">
+        <v>199</v>
+      </c>
+      <c r="L6">
+        <v>256</v>
+      </c>
+      <c r="M6">
+        <v>229</v>
+      </c>
+      <c r="N6">
+        <f>(M6-K6)/(L6-J6)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6">
-        <f t="shared" si="6"/>
-        <v>689.15</v>
+        <v>695</v>
       </c>
       <c r="R6">
         <f t="shared" si="4"/>
-        <v>1.3710198844137627</v>
+        <v>1.3826580855656461</v>
       </c>
       <c r="S6">
+        <v>-1.86</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="5"/>
-        <v>0.53138484139442688</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1">
-        <v>240913</v>
+        <v>1.3775606275333734</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>0.56060235420754223</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>56.060235420754225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>241008</v>
       </c>
       <c r="B7" s="1">
         <v>0.05</v>
@@ -931,46 +1023,73 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E7" s="1">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>187.5</v>
+        <v>200</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>56.25</v>
+        <v>50</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>131.25</v>
+        <v>150</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>659.73468750000006</v>
+        <v>753.98249999999996</v>
+      </c>
+      <c r="J7">
+        <v>221</v>
+      </c>
+      <c r="K7">
+        <v>199</v>
+      </c>
+      <c r="L7">
+        <v>250</v>
+      </c>
+      <c r="M7">
+        <v>226</v>
+      </c>
+      <c r="N7">
+        <f>(M7-K7)/(L7-J7)</f>
+        <v>0.93103448275862066</v>
       </c>
       <c r="O7" s="1">
-        <v>1687.49</v>
+        <v>1656.34</v>
       </c>
       <c r="P7" s="1">
-        <v>996</v>
+        <v>959.45</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="6"/>
-        <v>691.49</v>
+        <f t="shared" si="8"/>
+        <v>696.88999999999987</v>
       </c>
       <c r="R7">
         <f t="shared" si="4"/>
-        <v>1.3756751648745162</v>
+        <v>1.3864181197839467</v>
       </c>
       <c r="S7">
+        <v>-5.54</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="5"/>
-        <v>0.54313116970292907</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>1.3713043221598005</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>0.56993701861343105</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>56.993701861343105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
-        <v>241008</v>
+        <v>241009</v>
       </c>
       <c r="B8" s="1">
         <v>0.05</v>
@@ -982,62 +1101,73 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E8" s="1">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>214.28571428571431</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>42.857142857142861</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>171.42857142857144</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>753.98249999999996</v>
+        <v>861.69428571428591</v>
       </c>
       <c r="J8">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L8">
-        <v>250</v>
+        <v>242.9</v>
       </c>
       <c r="M8">
-        <v>226</v>
+        <v>217.34</v>
       </c>
       <c r="N8">
         <f>(M8-K8)/(L8-J8)</f>
-        <v>0.93103448275862066</v>
+        <v>0.9687150837988826</v>
       </c>
       <c r="O8" s="1">
-        <v>1656.34</v>
+        <v>1273.9100000000001</v>
       </c>
       <c r="P8" s="1">
-        <v>959.45</v>
+        <v>574.04999999999995</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="6"/>
-        <v>696.88999999999987</v>
+        <f t="shared" si="8"/>
+        <v>699.86000000000013</v>
       </c>
       <c r="R8">
         <f t="shared" si="4"/>
-        <v>1.3864181197839467</v>
+        <v>1.3923267449841343</v>
       </c>
       <c r="S8">
+        <v>-6.02</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="5"/>
-        <v>0.56993701861343105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>1.3758490195114759</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="6"/>
+        <v>0.5845039134991501</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>58.450391349915009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
-        <v>241009</v>
+        <v>241010</v>
       </c>
       <c r="B9" s="1">
         <v>0.05</v>
@@ -1049,62 +1179,60 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E9" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>214.28571428571431</v>
+        <v>60</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>42.857142857142861</v>
+        <v>120</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>171.42857142857144</v>
+        <v>-60</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>861.69428571428591</v>
-      </c>
-      <c r="J9">
-        <v>225</v>
-      </c>
-      <c r="K9">
-        <v>200</v>
-      </c>
-      <c r="L9">
-        <v>242.9</v>
-      </c>
-      <c r="M9">
-        <v>217.34</v>
+        <v>-301.59300000000002</v>
       </c>
       <c r="N9">
-        <f>(M9-K9)/(L9-J9)</f>
-        <v>0.9687150837988826</v>
+        <v>0.96</v>
       </c>
       <c r="O9" s="1">
-        <v>1273.9100000000001</v>
+        <v>1243.9000000000001</v>
       </c>
       <c r="P9" s="1">
-        <v>574.04999999999995</v>
+        <v>542.76</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="6"/>
-        <v>699.86000000000013</v>
+        <f t="shared" si="8"/>
+        <v>701.1400000000001</v>
       </c>
       <c r="R9">
         <f t="shared" si="4"/>
-        <v>1.3923267449841343</v>
+        <v>1.3948732231848882</v>
       </c>
       <c r="S9">
+        <v>-0.46</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="5"/>
-        <v>0.5845039134991501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>1.3935978851753574</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="6"/>
+        <v>0.59074384748373665</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="7"/>
+        <v>59.074384748373667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
-        <v>241010</v>
+        <v>241016</v>
       </c>
       <c r="B10" s="1">
         <v>0.05</v>
@@ -1116,46 +1244,55 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>42.857142857142854</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>128.57142857142856</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>-60</v>
+        <v>-85.714285714285694</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>-301.59300000000002</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1243.9000000000001</v>
-      </c>
-      <c r="P10" s="1">
-        <v>542.76</v>
-      </c>
+        <v>-430.84714285714279</v>
+      </c>
+      <c r="N10">
+        <v>0.94</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="Q10">
-        <f t="shared" si="6"/>
-        <v>701.1400000000001</v>
+        <v>691</v>
       </c>
       <c r="R10">
         <f t="shared" si="4"/>
-        <v>1.3948732231848882</v>
+        <v>1.3747003411882899</v>
       </c>
       <c r="S10">
+        <v>0.8</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="5"/>
-        <v>0.59074384748373665</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>1.3768917316754836</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="6"/>
+        <v>0.54067805378312683</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="7"/>
+        <v>54.067805378312684</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
-        <v>241016</v>
+        <v>241017</v>
       </c>
       <c r="B11" s="1">
         <v>0.05</v>
@@ -1167,46 +1304,57 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E11" s="1">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>42.857142857142854</v>
+        <v>75</v>
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>128.57142857142856</v>
+        <v>112.5</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>-85.714285714285694</v>
+        <v>-37.5</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>-430.84714285714279</v>
+        <v>-188.49562499999999</v>
       </c>
       <c r="O11" s="2">
-        <v>1219.06</v>
+        <v>1906.22</v>
       </c>
       <c r="P11" s="2">
-        <v>533</v>
+        <v>1222.47</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
-        <v>686.06</v>
+        <f t="shared" si="8"/>
+        <v>683.75</v>
       </c>
       <c r="R11">
         <f t="shared" si="4"/>
-        <v>1.364872526882255</v>
+        <v>1.3602769295043318</v>
       </c>
       <c r="S11">
+        <v>-3.7</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="5"/>
-        <v>0.51575089703038557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>1.3503372140099335</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="6"/>
+        <v>0.50397108165752524</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="7"/>
+        <v>50.397108165752527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
-        <v>241017</v>
+        <v>241018</v>
       </c>
       <c r="B12" s="1">
         <v>0.05</v>
@@ -1236,28 +1384,55 @@
         <f t="shared" si="3"/>
         <v>-188.49562499999999</v>
       </c>
+      <c r="J12">
+        <v>222</v>
+      </c>
+      <c r="K12">
+        <v>200</v>
+      </c>
+      <c r="L12">
+        <v>312.5</v>
+      </c>
+      <c r="M12">
+        <v>289.7</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N17" si="9">(M12-K12)/(L12-J12)</f>
+        <v>0.99116022099447498</v>
+      </c>
       <c r="O12" s="2">
-        <v>1426.91</v>
+        <v>1222.51</v>
       </c>
       <c r="P12" s="2">
-        <v>741</v>
+        <v>525.73</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="6"/>
-        <v>685.91000000000008</v>
+        <f t="shared" si="8"/>
+        <v>696.78</v>
       </c>
       <c r="R12">
         <f t="shared" si="4"/>
-        <v>1.3645741114681043</v>
+        <v>1.3861992818135696</v>
       </c>
       <c r="S12">
+        <v>-0.25</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="5"/>
-        <v>0.5149883827743984</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>1.3855101858203831</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="6"/>
+        <v>0.56939511915344376</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="7"/>
+        <v>56.939511915344376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
-        <v>241018</v>
+        <v>241022</v>
       </c>
       <c r="B13" s="1">
         <v>0.05</v>
@@ -1269,62 +1444,73 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E13" s="1">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>180.72289156626505</v>
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>112.5</v>
+        <v>59.638554216867469</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>-37.5</v>
+        <v>121.08433734939757</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>-188.49562499999999</v>
+        <v>608.63647590361438</v>
       </c>
       <c r="J13">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K13">
         <v>200</v>
       </c>
       <c r="L13">
-        <v>312.5</v>
+        <v>259.60000000000002</v>
       </c>
       <c r="M13">
-        <v>289.7</v>
+        <v>237.79</v>
       </c>
       <c r="N13">
-        <f>(M13-K13)/(L13-J13)</f>
-        <v>0.99116022099447498</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1229.3800000000001</v>
-      </c>
-      <c r="P13" s="2">
-        <v>531</v>
+        <f t="shared" si="9"/>
+        <v>0.95429292929292853</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1157.48</v>
+      </c>
+      <c r="P13" s="1">
+        <v>469.35</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
-        <v>698.38000000000011</v>
+        <f t="shared" si="8"/>
+        <v>688.13</v>
       </c>
       <c r="R13">
         <f t="shared" si="4"/>
-        <v>1.3893823795645124</v>
+        <v>1.3689906595975367</v>
       </c>
       <c r="S13">
+        <v>0.67</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="5"/>
-        <v>0.57726047642798706</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>1.370817853123101</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="6"/>
+        <v>0.52623964612703023</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="7"/>
+        <v>52.62396461270302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
-        <v>241022</v>
+        <v>241101</v>
       </c>
       <c r="B14" s="1">
         <v>0.05</v>
@@ -1336,46 +1522,73 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E14" s="1">
-        <v>0.33</v>
+        <v>0.23</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>180.72289156626505</v>
+        <v>205.47945205479454</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>59.638554216867469</v>
+        <v>47.260273972602747</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>121.08433734939757</v>
+        <v>158.21917808219177</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>608.63647590361438</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1227.67</v>
-      </c>
-      <c r="P14" s="1">
-        <v>532</v>
+        <v>795.29660958904117</v>
+      </c>
+      <c r="J14">
+        <v>220</v>
+      </c>
+      <c r="K14">
+        <v>200</v>
+      </c>
+      <c r="L14">
+        <v>247</v>
+      </c>
+      <c r="M14">
+        <v>226.2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="9"/>
+        <v>0.97037037037036999</v>
+      </c>
+      <c r="O14">
+        <v>1412.18</v>
+      </c>
+      <c r="P14">
+        <v>721</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="6"/>
-        <v>695.67000000000007</v>
+        <f t="shared" si="8"/>
+        <v>691.18000000000006</v>
       </c>
       <c r="R14">
         <f t="shared" si="4"/>
-        <v>1.3839910077488535</v>
+        <v>1.375058439685271</v>
       </c>
       <c r="S14">
+        <v>-4.5599999999999996</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="5"/>
-        <v>0.56391727125423552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>1.3626962924992359</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="6"/>
+        <v>0.54157960257761417</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="7"/>
+        <v>54.157960257761417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
-        <v>241101</v>
+        <v>241107</v>
       </c>
       <c r="B15" s="1">
         <v>0.05</v>
@@ -1387,62 +1600,73 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E15" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>205.47945205479454</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>47.260273972602747</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>158.21917808219177</v>
+        <v>162.5</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>795.29660958904117</v>
+        <v>816.81437500000004</v>
       </c>
       <c r="J15">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K15">
-        <v>200</v>
+        <v>200.7</v>
       </c>
       <c r="L15">
-        <v>247</v>
+        <v>245.8</v>
       </c>
       <c r="M15">
-        <v>226.2</v>
+        <v>231.1</v>
       </c>
       <c r="N15">
-        <f>(M15-K15)/(L15-J15)</f>
-        <v>0.97037037037036999</v>
+        <f t="shared" si="9"/>
+        <v>0.98701298701298679</v>
       </c>
       <c r="O15">
-        <v>1412.18</v>
+        <v>1275.04</v>
       </c>
       <c r="P15">
-        <v>721</v>
+        <v>582.75</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="6"/>
-        <v>691.18000000000006</v>
+        <f t="shared" si="8"/>
+        <v>692.29</v>
       </c>
       <c r="R15">
         <f t="shared" si="4"/>
-        <v>1.375058439685271</v>
+        <v>1.3772667137499872</v>
       </c>
       <c r="S15">
+        <v>-3.33</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="5"/>
-        <v>0.54157960257761417</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>1.3682026147020168</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="6"/>
+        <v>0.54712879391569769</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="7"/>
+        <v>54.712879391569771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
-        <v>241107</v>
+        <v>241119</v>
       </c>
       <c r="B16" s="1">
         <v>0.05</v>
@@ -1454,62 +1678,73 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E16" s="1">
-        <v>0.22</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>208.33333333333334</v>
+        <v>206.89655172413794</v>
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>45.833333333333336</v>
+        <v>46.551724137931039</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>162.5</v>
+        <v>160.34482758620689</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>816.81437500000004</v>
+        <v>805.98129310344825</v>
       </c>
       <c r="J16">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K16">
-        <v>200.7</v>
+        <v>200</v>
       </c>
       <c r="L16">
-        <v>245.8</v>
+        <v>246.5</v>
       </c>
       <c r="M16">
-        <v>231.1</v>
+        <v>224</v>
       </c>
       <c r="N16">
-        <f>(M16-K16)/(L16-J16)</f>
-        <v>0.98701298701298679</v>
+        <f t="shared" si="9"/>
+        <v>0.90566037735849059</v>
       </c>
       <c r="O16">
-        <v>1275.04</v>
+        <v>1322</v>
       </c>
       <c r="P16">
-        <v>582.75</v>
+        <v>623</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
-        <v>692.29</v>
+        <f t="shared" si="8"/>
+        <v>699</v>
       </c>
       <c r="R16">
         <f t="shared" si="4"/>
-        <v>1.3772667137499872</v>
+        <v>1.3906158299430025</v>
       </c>
       <c r="S16">
+        <v>-5.32</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="5"/>
-        <v>0.54712879391569769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>1.376051971061568</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>0.5802986225813207</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="7"/>
+        <v>58.02986225813207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
-        <v>241119</v>
+        <v>241122</v>
       </c>
       <c r="B17" s="1">
         <v>0.05</v>
@@ -1521,62 +1756,73 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E17" s="1">
-        <v>0.22500000000000001</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>206.89655172413794</v>
+        <v>100</v>
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>46.551724137931039</v>
+        <v>100</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>160.34482758620689</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>805.98129310344825</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K17">
-        <v>200</v>
+        <v>199.6</v>
       </c>
       <c r="L17">
-        <v>246.5</v>
+        <v>300</v>
       </c>
       <c r="M17">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="N17">
-        <f>(M17-K17)/(L17-J17)</f>
-        <v>0.90566037735849059</v>
-      </c>
-      <c r="O17">
-        <v>1322</v>
-      </c>
-      <c r="P17">
-        <v>623</v>
+        <f t="shared" si="9"/>
+        <v>0.90379746835443042</v>
+      </c>
+      <c r="O17" s="2">
+        <v>1750.42</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1060</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="6"/>
-        <v>699</v>
+        <f t="shared" si="8"/>
+        <v>690.42000000000007</v>
       </c>
       <c r="R17">
         <f t="shared" si="4"/>
-        <v>1.3906158299430025</v>
+        <v>1.3735464682535734</v>
       </c>
       <c r="S17">
+        <v>-4.25</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="5"/>
-        <v>0.5802986225813207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>1.3620303607184776</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="6"/>
+        <v>0.53776986546982497</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
+        <v>53.776986546982499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
-        <v>241122</v>
+        <v>241126</v>
       </c>
       <c r="B18" s="1">
         <v>0.05</v>
@@ -1588,241 +1834,300 @@
         <v>5.0265500000000003E-3</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>502.65499999999997</v>
       </c>
       <c r="J18">
-        <v>221</v>
+        <v>220.5</v>
       </c>
       <c r="K18">
         <v>199.6</v>
       </c>
       <c r="L18">
-        <v>300</v>
+        <v>266.7</v>
       </c>
       <c r="M18">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="N18">
         <f>(M18-K18)/(L18-J18)</f>
-        <v>0.90379746835443042</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1750.42</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1060</v>
+        <v>0.91774891774891809</v>
+      </c>
+      <c r="O18">
+        <v>1473.8</v>
+      </c>
+      <c r="P18">
+        <v>784</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="6"/>
-        <v>690.42000000000007</v>
+        <f>O18-P18</f>
+        <v>689.8</v>
       </c>
       <c r="R18">
         <f t="shared" si="4"/>
-        <v>1.3735464682535734</v>
+        <v>1.3723130178750829</v>
       </c>
       <c r="S18">
+        <v>-3.58</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="5"/>
-        <v>0.53776986546982497</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="17" thickBot="1">
-      <c r="E22" s="7" t="s">
+        <v>1.3626082748130806</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ref="V18:V19" si="10">(1/1.189-1/R18)/(1/1.189-1/1.585)</f>
+        <v>0.5346557043506962</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ref="W18:W19" si="11">V18*100</f>
+        <v>53.465570435069623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="D19" s="1">
+        <v>5.0265500000000003E-3</v>
+      </c>
+      <c r="Q19">
+        <v>750</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>1.4920770707542945</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="10"/>
+        <v>0.81301003341750799</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="11"/>
+        <v>81.3010033417508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="17" thickBot="1">
+      <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="J21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="17" thickTop="1">
-      <c r="E23" s="3">
+    <row r="22" spans="1:23" ht="17" thickTop="1">
+      <c r="E22" s="7">
         <v>0.2</v>
       </c>
+      <c r="F22" s="3">
+        <v>214.28571428571431</v>
+      </c>
+      <c r="G22" s="3">
+        <v>42.857142857142861</v>
+      </c>
+      <c r="H22" s="3">
+        <v>171.42857142857144</v>
+      </c>
+      <c r="I22" s="3">
+        <v>861.69428571428591</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0.9687150837988826</v>
+      </c>
+      <c r="K22" s="3">
+        <v>699.86000000000013</v>
+      </c>
+      <c r="L22" s="3">
+        <v>58.450391349915009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="E23" s="6">
+        <v>0.22</v>
+      </c>
       <c r="F23" s="3">
-        <v>214.28571428571431</v>
+        <v>208.33333333333334</v>
       </c>
       <c r="G23" s="3">
-        <v>42.857142857142861</v>
+        <v>45.833333333333336</v>
       </c>
       <c r="H23" s="3">
-        <v>171.42857142857144</v>
+        <v>162.5</v>
       </c>
       <c r="I23" s="3">
-        <v>861.69428571428591</v>
+        <v>816.81437500000004</v>
       </c>
       <c r="J23" s="3">
-        <v>0.9687150837988826</v>
+        <v>0.98701298701298679</v>
       </c>
       <c r="K23" s="3">
-        <v>699.86000000000013</v>
+        <v>692.29</v>
       </c>
       <c r="L23" s="3">
-        <v>58.450391349915009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="E24" s="3">
-        <v>0.22</v>
+        <v>54.712879391569771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="E24" s="6">
+        <v>0.22500000000000001</v>
       </c>
       <c r="F24" s="3">
-        <v>208.33333333333334</v>
+        <v>206.89655172413794</v>
       </c>
       <c r="G24" s="3">
-        <v>45.833333333333336</v>
+        <v>46.551724137931039</v>
       </c>
       <c r="H24" s="3">
-        <v>162.5</v>
+        <v>160.34482758620689</v>
       </c>
       <c r="I24" s="3">
-        <v>816.81437500000004</v>
+        <v>805.98129310344825</v>
       </c>
       <c r="J24" s="3">
-        <v>0.98701298701298679</v>
+        <v>0.90566037735849059</v>
       </c>
       <c r="K24" s="3">
-        <v>692.29</v>
+        <v>699</v>
       </c>
       <c r="L24" s="3">
-        <v>54.712879391569771</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="E25" s="3">
-        <v>0.22500000000000001</v>
+        <v>58.02986225813207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="E25" s="6">
+        <v>0.23</v>
       </c>
       <c r="F25" s="3">
-        <v>206.89655172413794</v>
+        <v>205.47945205479454</v>
       </c>
       <c r="G25" s="3">
-        <v>46.551724137931039</v>
+        <v>47.260273972602747</v>
       </c>
       <c r="H25" s="3">
-        <v>160.34482758620689</v>
+        <v>158.21917808219177</v>
       </c>
       <c r="I25" s="3">
-        <v>805.98129310344825</v>
+        <v>795.29660958904117</v>
       </c>
       <c r="J25" s="3">
-        <v>0.90566037735849059</v>
+        <v>0.97037037037036999</v>
       </c>
       <c r="K25" s="3">
-        <v>699</v>
+        <v>691.18000000000006</v>
       </c>
       <c r="L25" s="3">
-        <v>58.02986225813207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="E26" s="3">
-        <v>0.23</v>
+        <v>54.157960257761417</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="E26" s="6">
+        <v>0.25</v>
       </c>
       <c r="F26" s="3">
-        <v>205.47945205479454</v>
+        <v>200</v>
       </c>
       <c r="G26" s="3">
-        <v>47.260273972602747</v>
+        <v>50</v>
       </c>
       <c r="H26" s="3">
-        <v>158.21917808219177</v>
+        <v>150</v>
       </c>
       <c r="I26" s="3">
-        <v>795.29660958904117</v>
+        <v>753.98249999999996</v>
       </c>
       <c r="J26" s="3">
-        <v>0.97037037037036999</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="K26" s="3">
-        <v>691.18000000000006</v>
+        <v>696.88999999999987</v>
       </c>
       <c r="L26" s="3">
-        <v>54.157960257761417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
-      <c r="E27" s="3">
-        <v>0.25</v>
+        <v>56.993701861343105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="E27" s="6">
+        <v>0.3</v>
       </c>
       <c r="F27" s="3">
-        <v>200</v>
+        <v>187.5</v>
       </c>
       <c r="G27" s="3">
-        <v>50</v>
+        <v>56.25</v>
       </c>
       <c r="H27" s="3">
-        <v>150</v>
+        <v>131.25</v>
       </c>
       <c r="I27" s="3">
-        <v>753.98249999999996</v>
+        <v>659.73468750000006</v>
       </c>
       <c r="J27" s="3">
-        <v>0.93103448275862066</v>
+        <v>0.9375</v>
       </c>
       <c r="K27" s="3">
-        <v>696.88999999999987</v>
+        <v>695</v>
       </c>
       <c r="L27" s="3">
-        <v>56.993701861343105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
-      <c r="E28" s="3">
-        <v>0.3</v>
+        <v>56.060235420754225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="E28" s="6">
+        <v>0.33</v>
       </c>
       <c r="F28" s="3">
-        <v>187.5</v>
+        <v>180.72289156626505</v>
       </c>
       <c r="G28" s="3">
-        <v>56.25</v>
+        <v>59.638554216867469</v>
       </c>
       <c r="H28" s="3">
-        <v>131.25</v>
+        <v>121.08433734939757</v>
       </c>
       <c r="I28" s="3">
-        <v>659.73468750000006</v>
-      </c>
-      <c r="J28" s="3"/>
+        <v>608.63647590361438</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.95</v>
+      </c>
       <c r="K28" s="3">
-        <v>691.49</v>
+        <v>689.15</v>
       </c>
       <c r="L28" s="3">
-        <v>54.31311697029291</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="E29" s="3">
+        <v>53.138484139442689</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="E29" s="6">
         <v>0.33</v>
       </c>
       <c r="F29" s="3">
@@ -1837,64 +2142,70 @@
       <c r="I29" s="3">
         <v>608.63647590361438</v>
       </c>
-      <c r="J29" s="3"/>
+      <c r="J29" s="3">
+        <v>0.95429292929292853</v>
+      </c>
       <c r="K29" s="3">
-        <v>689.15</v>
+        <v>688.13</v>
       </c>
       <c r="L29" s="3">
-        <v>53.138484139442689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="E30" s="3">
-        <v>0.33</v>
+        <v>52.62396461270302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="E30" s="6">
+        <v>0.4</v>
       </c>
       <c r="F30" s="3">
-        <v>180.72289156626505</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="G30" s="3">
-        <v>59.638554216867469</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="H30" s="3">
-        <v>121.08433734939757</v>
+        <v>99.999999999999986</v>
       </c>
       <c r="I30" s="3">
-        <v>608.63647590361438</v>
-      </c>
-      <c r="J30" s="3"/>
+        <v>502.65499999999997</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.91774891774891809</v>
+      </c>
       <c r="K30" s="3">
-        <v>695.67000000000007</v>
+        <v>689.8</v>
       </c>
       <c r="L30" s="3">
-        <v>56.39172712542355</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
-      <c r="E31" s="3">
-        <v>0.4</v>
+        <v>53.465570435069623</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="E31" s="7">
+        <v>0.5</v>
       </c>
       <c r="F31" s="3">
-        <v>166.66666666666666</v>
+        <v>150</v>
       </c>
       <c r="G31" s="3">
-        <v>66.666666666666671</v>
+        <v>75</v>
       </c>
       <c r="H31" s="3">
-        <v>99.999999999999986</v>
+        <v>75</v>
       </c>
       <c r="I31" s="3">
-        <v>502.65482457436696</v>
-      </c>
-      <c r="J31" s="3"/>
+        <v>376.99111843077532</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0.95</v>
+      </c>
       <c r="K31" s="3">
-        <v>680.31000000000006</v>
+        <v>703.45</v>
       </c>
       <c r="L31" s="3">
-        <v>48.628180544998067</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="E32" s="3">
+        <v>60.194869487399394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="E32" s="7">
         <v>0.5</v>
       </c>
       <c r="F32" s="3">
@@ -1909,40 +2220,44 @@
       <c r="I32" s="3">
         <v>376.99111843077532</v>
       </c>
-      <c r="J32" s="3"/>
+      <c r="J32" s="3">
+        <v>0.94</v>
+      </c>
       <c r="K32" s="3">
-        <v>703.45</v>
+        <v>689.75</v>
       </c>
       <c r="L32" s="3">
-        <v>60.194869487399394</v>
+        <v>53.440552874159472</v>
       </c>
     </row>
     <row r="33" spans="5:12">
-      <c r="E33" s="3">
-        <v>0.5</v>
+      <c r="E33" s="6">
+        <v>1</v>
       </c>
       <c r="F33" s="3">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>376.99111843077532</v>
-      </c>
-      <c r="J33" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.95200000000000007</v>
+      </c>
       <c r="K33" s="3">
-        <v>689.75</v>
+        <v>688.5</v>
       </c>
       <c r="L33" s="3">
-        <v>53.440552874159472</v>
+        <v>52.810901508185658</v>
       </c>
     </row>
     <row r="34" spans="5:12">
-      <c r="E34" s="3">
+      <c r="E34" s="6">
         <v>1</v>
       </c>
       <c r="F34" s="3">
@@ -1958,43 +2273,41 @@
         <v>0</v>
       </c>
       <c r="J34" s="3">
-        <v>0.95200000000000007</v>
+        <v>0.90379746835443042</v>
       </c>
       <c r="K34" s="3">
-        <v>688.5</v>
+        <v>690.42000000000007</v>
       </c>
       <c r="L34" s="3">
-        <v>52.810901508185658</v>
+        <v>53.776986546982499</v>
       </c>
     </row>
     <row r="35" spans="5:12">
-      <c r="E35" s="3">
-        <v>1</v>
+      <c r="E35" s="6">
+        <v>1.5</v>
       </c>
       <c r="F35" s="3">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G35" s="3">
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-37.5</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0.90379746835443042</v>
-      </c>
+        <v>-188.49562499999999</v>
+      </c>
+      <c r="J35" s="3"/>
       <c r="K35" s="3">
-        <v>690.42000000000007</v>
+        <v>683.75</v>
       </c>
       <c r="L35" s="3">
-        <v>53.776986546982499</v>
+        <v>50.397108165752527</v>
       </c>
     </row>
     <row r="36" spans="5:12">
-      <c r="E36" s="3">
+      <c r="E36" s="6">
         <v>1.5</v>
       </c>
       <c r="F36" s="3">
@@ -2003,98 +2316,78 @@
       <c r="G36" s="3">
         <v>112.5</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="3">
         <v>-37.5</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="3">
         <v>-188.49562499999999</v>
       </c>
-      <c r="J36" s="3"/>
+      <c r="J36" s="3">
+        <v>0.99116022099447498</v>
+      </c>
       <c r="K36" s="3">
-        <v>685.91000000000008</v>
+        <v>696.78</v>
       </c>
       <c r="L36" s="3">
-        <v>51.498838277439837</v>
+        <v>56.939511915344376</v>
       </c>
     </row>
     <row r="37" spans="5:12">
-      <c r="E37" s="3">
-        <v>1.5</v>
+      <c r="E37" s="6">
+        <v>2</v>
       </c>
       <c r="F37" s="3">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G37" s="3">
-        <v>112.5</v>
-      </c>
-      <c r="H37" s="4">
-        <v>-37.5</v>
-      </c>
-      <c r="I37" s="4">
-        <v>-188.49562499999999</v>
+        <v>120</v>
+      </c>
+      <c r="H37" s="3">
+        <v>-60</v>
+      </c>
+      <c r="I37" s="3">
+        <v>-301.59300000000002</v>
       </c>
       <c r="J37" s="3">
-        <v>0.99116022099447498</v>
+        <v>0.96</v>
       </c>
       <c r="K37" s="3">
-        <v>698.38000000000011</v>
+        <v>701.1400000000001</v>
       </c>
       <c r="L37" s="3">
-        <v>57.726047642798704</v>
-      </c>
-    </row>
-    <row r="38" spans="5:12">
-      <c r="E38" s="3">
-        <v>2</v>
-      </c>
-      <c r="F38" s="3">
-        <v>60</v>
-      </c>
-      <c r="G38" s="3">
-        <v>120</v>
+        <v>59.074384748373667</v>
+      </c>
+    </row>
+    <row r="38" spans="5:12" ht="17" thickBot="1">
+      <c r="E38" s="8">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="G38" s="4">
+        <v>128.57142857142856</v>
       </c>
       <c r="H38" s="4">
-        <v>-60</v>
+        <v>-85.714285714285694</v>
       </c>
       <c r="I38" s="4">
-        <v>-301.59300000000002</v>
-      </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3">
-        <v>701.1400000000001</v>
-      </c>
-      <c r="L38" s="3">
-        <v>59.074384748373667</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" ht="17" thickBot="1">
-      <c r="E39" s="5">
-        <v>3</v>
-      </c>
-      <c r="F39" s="5">
-        <v>42.857142857142854</v>
-      </c>
-      <c r="G39" s="5">
-        <v>128.57142857142856</v>
-      </c>
-      <c r="H39" s="6">
-        <v>-85.714285714285694</v>
-      </c>
-      <c r="I39" s="6">
         <v>-430.84714285714279</v>
       </c>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5">
-        <v>686.06</v>
-      </c>
-      <c r="L39" s="5">
-        <v>51.575089703038557</v>
-      </c>
-    </row>
-    <row r="40" spans="5:12" ht="17" thickTop="1"/>
+      <c r="J38" s="4">
+        <v>0.94</v>
+      </c>
+      <c r="K38" s="4">
+        <v>691</v>
+      </c>
+      <c r="L38" s="4">
+        <v>54.067805378312684</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" ht="17" thickTop="1"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E23:L39">
-    <sortCondition ref="E23:E39"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E22:L38">
+    <sortCondition ref="E22:E38"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
